--- a/StructureDefinition-bw-lab-service-request.xlsx
+++ b/StructureDefinition-bw-lab-service-request.xlsx
@@ -755,7 +755,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t>http://b-techbw.github.io/emr-lis-bw-ig/ValueSet/bw-lab-order-code-vs</t>
+    <t>http://b-techbw.github.io/bw-lab-ig/ValueSet/bw-lab-order-code-vs</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -842,7 +842,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://b-techbw.github.io/emr-lis-bw-ig/StructureDefinition/bw-patient)
+    <t xml:space="preserve">Reference(http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-patient)
 </t>
   </si>
   <si>
@@ -874,7 +874,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://b-techbw.github.io/emr-lis-bw-ig/StructureDefinition/bw-encounter)
+    <t xml:space="preserve">Reference(http://b-techbw.github.io/bw-lab-ig/StructureDefinition/bw-encounter)
 </t>
   </si>
   <si>

--- a/StructureDefinition-bw-lab-service-request.xlsx
+++ b/StructureDefinition-bw-lab-service-request.xlsx
@@ -4852,7 +4852,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>52</v>

--- a/StructureDefinition-bw-lab-service-request.xlsx
+++ b/StructureDefinition-bw-lab-service-request.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="419">
   <si>
     <t>Path</t>
   </si>
@@ -753,9 +753,6 @@
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>http://b-techbw.github.io/bw-lab-ig/ValueSet/bw-lab-order-code-vs</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -4334,29 +4331,31 @@
         <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4374,10 +4373,10 @@
         <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>44</v>
@@ -4388,7 +4387,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4414,16 +4413,16 @@
         <v>54</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4472,7 +4471,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4490,10 +4489,10 @@
         <v>44</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>44</v>
@@ -4504,11 +4503,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4530,13 +4529,13 @@
         <v>179</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4565,11 +4564,11 @@
         <v>184</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4595,7 +4594,7 @@
         <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>64</v>
@@ -4604,7 +4603,7 @@
         <v>44</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>217</v>
@@ -4618,7 +4617,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4641,17 +4640,17 @@
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4700,7 +4699,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4718,10 +4717,10 @@
         <v>44</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>44</v>
@@ -4732,7 +4731,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4755,13 +4754,13 @@
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4812,7 +4811,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>52</v>
@@ -4827,28 +4826,28 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4867,13 +4866,13 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4924,7 +4923,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4939,28 +4938,28 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4979,13 +4978,13 @@
         <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5036,7 +5035,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5051,24 +5050,24 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>292</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5091,13 +5090,13 @@
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5127,11 +5126,11 @@
         <v>184</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
       </c>
@@ -5148,7 +5147,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5169,22 +5168,22 @@
         <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5203,13 +5202,13 @@
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5260,7 +5259,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5275,28 +5274,28 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5315,16 +5314,16 @@
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5374,7 +5373,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5389,28 +5388,28 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>321</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5432,13 +5431,13 @@
         <v>179</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5467,11 +5466,11 @@
         <v>184</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>328</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5488,7 +5487,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5503,16 +5502,16 @@
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5520,11 +5519,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5543,16 +5542,16 @@
         <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5602,7 +5601,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5617,16 +5616,16 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="AM36" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5634,7 +5633,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5660,10 +5659,10 @@
         <v>179</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5693,11 +5692,11 @@
         <v>184</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
       </c>
@@ -5714,7 +5713,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5735,10 +5734,10 @@
         <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5746,7 +5745,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5769,13 +5768,13 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5826,7 +5825,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5847,10 +5846,10 @@
         <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5858,7 +5857,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5884,13 +5883,13 @@
         <v>179</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5919,11 +5918,11 @@
         <v>184</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
       </c>
@@ -5940,7 +5939,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5955,16 +5954,16 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -5972,7 +5971,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5995,16 +5994,16 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6054,7 +6053,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6069,16 +6068,16 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AL40" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="AM40" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6086,7 +6085,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6109,13 +6108,13 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6166,7 +6165,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6181,13 +6180,13 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
@@ -6198,11 +6197,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6221,16 +6220,16 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6280,7 +6279,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6295,13 +6294,13 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
@@ -6312,7 +6311,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6335,16 +6334,16 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6394,7 +6393,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6412,10 +6411,10 @@
         <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
@@ -6426,11 +6425,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6452,16 +6451,16 @@
         <v>179</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6489,11 +6488,11 @@
         <v>184</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>400</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6510,7 +6509,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6528,21 +6527,21 @@
         <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6565,13 +6564,13 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>12</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6622,7 +6621,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6637,24 +6636,24 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>408</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6680,10 +6679,10 @@
         <v>54</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6734,7 +6733,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6752,10 +6751,10 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -6766,7 +6765,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6789,16 +6788,16 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6848,7 +6847,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6863,13 +6862,13 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>44</v>

--- a/StructureDefinition-bw-lab-service-request.xlsx
+++ b/StructureDefinition-bw-lab-service-request.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="420">
   <si>
     <t>Path</t>
   </si>
@@ -753,6 +753,9 @@
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>http://b-techbw.github.io/bw-lab-ig/ValueSet/bw-lab-order-code-vs</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -4331,13 +4334,11 @@
         <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>44</v>
@@ -4355,7 +4356,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4373,10 +4374,10 @@
         <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>44</v>
@@ -4387,7 +4388,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4413,16 +4414,16 @@
         <v>54</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4471,7 +4472,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4489,10 +4490,10 @@
         <v>44</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>44</v>
@@ -4503,11 +4504,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4529,13 +4530,13 @@
         <v>179</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4564,10 +4565,10 @@
         <v>184</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>44</v>
@@ -4585,7 +4586,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4594,7 +4595,7 @@
         <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>64</v>
@@ -4603,7 +4604,7 @@
         <v>44</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>217</v>
@@ -4617,7 +4618,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4640,17 +4641,17 @@
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4699,7 +4700,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4717,10 +4718,10 @@
         <v>44</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>44</v>
@@ -4731,7 +4732,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4754,13 +4755,13 @@
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4811,7 +4812,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>52</v>
@@ -4826,28 +4827,28 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4866,13 +4867,13 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4923,7 +4924,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4938,28 +4939,28 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4978,13 +4979,13 @@
         <v>53</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5035,7 +5036,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5050,24 +5051,24 @@
         <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5090,13 +5091,13 @@
         <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5126,10 +5127,10 @@
         <v>184</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
@@ -5147,7 +5148,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5168,22 +5169,22 @@
         <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5202,13 +5203,13 @@
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5259,7 +5260,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5274,28 +5275,28 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5314,16 +5315,16 @@
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5373,7 +5374,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5388,28 +5389,28 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5431,13 +5432,13 @@
         <v>179</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5466,10 +5467,10 @@
         <v>184</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
@@ -5487,7 +5488,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5502,16 +5503,16 @@
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5519,11 +5520,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5542,16 +5543,16 @@
         <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5601,7 +5602,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5616,16 +5617,16 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>44</v>
@@ -5633,7 +5634,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5659,10 +5660,10 @@
         <v>179</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5692,10 +5693,10 @@
         <v>184</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
@@ -5713,7 +5714,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5734,10 +5735,10 @@
         <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -5745,7 +5746,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5768,13 +5769,13 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5825,7 +5826,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5846,10 +5847,10 @@
         <v>44</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>44</v>
@@ -5857,7 +5858,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5883,13 +5884,13 @@
         <v>179</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5918,10 +5919,10 @@
         <v>184</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>44</v>
@@ -5939,7 +5940,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5954,16 +5955,16 @@
         <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>44</v>
@@ -5971,7 +5972,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5994,16 +5995,16 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6053,7 +6054,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6068,16 +6069,16 @@
         <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6085,7 +6086,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6108,13 +6109,13 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6165,7 +6166,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6180,13 +6181,13 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
@@ -6197,11 +6198,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6220,16 +6221,16 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6279,7 +6280,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6294,13 +6295,13 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
@@ -6311,7 +6312,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6334,16 +6335,16 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6393,7 +6394,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6411,10 +6412,10 @@
         <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
@@ -6425,11 +6426,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6451,16 +6452,16 @@
         <v>179</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6488,10 +6489,10 @@
         <v>184</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6509,7 +6510,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6527,21 +6528,21 @@
         <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6564,13 +6565,13 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>12</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6621,7 +6622,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6636,24 +6637,24 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6679,10 +6680,10 @@
         <v>54</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6733,7 +6734,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6751,10 +6752,10 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -6765,7 +6766,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6788,16 +6789,16 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6847,7 +6848,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6862,13 +6863,13 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>44</v>
